--- a/dna-methylation/scripts/develop/residuals_common/plot/cpgs.xlsx
+++ b/dna-methylation/scripts/develop/residuals_common/plot/cpgs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>cpg</t>
   </si>
@@ -27,43 +27,22 @@
     <t>gene</t>
   </si>
   <si>
-    <t>cg17076667</t>
-  </si>
-  <si>
-    <t>cg14079463</t>
-  </si>
-  <si>
     <t>cg01620164</t>
   </si>
   <si>
-    <t>cg27615582</t>
-  </si>
-  <si>
-    <t>cg23928726</t>
-  </si>
-  <si>
-    <t>cg04580344</t>
-  </si>
-  <si>
-    <t>BAG3</t>
-  </si>
-  <si>
-    <t>C6orf174</t>
-  </si>
-  <si>
     <t>FIGN</t>
   </si>
   <si>
     <t>PRR4</t>
   </si>
   <si>
-    <t>PEX10</t>
-  </si>
-  <si>
     <t>begin</t>
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>cg23256579</t>
   </si>
 </sst>
 </file>
@@ -431,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -447,94 +426,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>-0.5</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>-0.5</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>-0.5</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>-0.5</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
